--- a/WorkflowSynthesis/flowmap/evaluation/ExpertWorkflows/TaskMatch.xlsx
+++ b/WorkflowSynthesis/flowmap/evaluation/ExpertWorkflows/TaskMatch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Sjef\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schei008\.matplotlib\Documents\github\QuAnGIS\WorkflowSynthesis\flowmap\evaluation\ExpertWorkflows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2356B9B-27CA-46EC-8B89-9AA22A49ADCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D99200-DAFD-4806-8C6C-87CB58B2A726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14865" yWindow="1725" windowWidth="14550" windowHeight="13890" xr2:uid="{8ADBAB6C-CE1D-4F4E-8A7F-D41CFA049B33}"/>
+    <workbookView xWindow="192" yWindow="2184" windowWidth="20112" windowHeight="10848" xr2:uid="{8ADBAB6C-CE1D-4F4E-8A7F-D41CFA049B33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Tom: Original Research Question</t>
   </si>
@@ -69,15 +69,6 @@
     <t>11. Gravity Modelling</t>
   </si>
   <si>
-    <t>12. Suitability Mapping Greenfields</t>
-  </si>
-  <si>
-    <t>13. Suitability Mapping Brownfields</t>
-  </si>
-  <si>
-    <t>14.  Dedicated Accessibility Points</t>
-  </si>
-  <si>
     <t>Task 6.Functional clusters of football clubs and municipalities</t>
   </si>
   <si>
@@ -87,9 +78,6 @@
     <t>Task 8.Trade area enclosing 60% of nearest ticket holders of each footballclub</t>
   </si>
   <si>
-    <t>Task 10.Traffic load for each road in a network assuming shortestpaths</t>
-  </si>
-  <si>
     <t>Simon: Task Specification</t>
   </si>
   <si>
@@ -99,13 +87,43 @@
     <t>Task 3.Accessibility of football clubs for each municipality:</t>
   </si>
   <si>
-    <t>Task 9.Potential amount of season ticket holders of each municipalityfor each football club</t>
-  </si>
-  <si>
     <t>Task 2.Potential maximal travel distance of a certain amount of footballfans for each municipality</t>
   </si>
   <si>
     <t>Task 1.Potential amount of football fans at given travel distance for each municipality</t>
+  </si>
+  <si>
+    <t>14. Suitability Mapping Greenfields</t>
+  </si>
+  <si>
+    <t>15. Suitability Mapping Brownfields</t>
+  </si>
+  <si>
+    <t>16.  Dedicated Accessibility Points</t>
+  </si>
+  <si>
+    <t>12. Gravity model  attractiveness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 gravity model singly constrained </t>
+  </si>
+  <si>
+    <t>Task 12.Traffic load for each road in a network assuming shortestpaths</t>
+  </si>
+  <si>
+    <t>Task 10. Attractiveness score of clubs for season ticket holders</t>
+  </si>
+  <si>
+    <t>Task 11. Potential amount of ticket holders for clubs with hypothetical attractiveness</t>
+  </si>
+  <si>
+    <t>Task 9.Potential amount of season tickets sold in each municipality for each football club</t>
+  </si>
+  <si>
+    <t>same as 3</t>
+  </si>
+  <si>
+    <t>same as 7</t>
   </si>
 </sst>
 </file>
@@ -464,121 +482,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF52FAB-6FE8-45D5-86E7-30475181D4D9}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
